--- a/Report.xlsx
+++ b/Report.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-Sairam\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
   <si>
     <t>S No</t>
   </si>
@@ -104,32 +99,74 @@
     <t>JDK 1.5/1.6</t>
   </si>
   <si>
-    <t>Additional Practice</t>
-  </si>
-  <si>
     <t>Concepts</t>
   </si>
   <si>
     <t xml:space="preserve">Working </t>
   </si>
   <si>
-    <t>Code Quality</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
-    <t>Problem solving ability is good</t>
-  </si>
-  <si>
-    <t>Problem Solver not consistent</t>
+    <t>slow learner,logically good,problem solving ability good,can work as a team,has to improve coding skills,</t>
+  </si>
+  <si>
+    <t>fast learner,can work with less supervision,less consistent,</t>
+  </si>
+  <si>
+    <t>Problem Solver not consistent,fast learner,</t>
+  </si>
+  <si>
+    <t>have to improve</t>
+  </si>
+  <si>
+    <t>overall good,hard working,</t>
+  </si>
+  <si>
+    <t>Attitude, Not able to work consistently,</t>
+  </si>
+  <si>
+    <t>Problem solving ability is good,Overall good</t>
+  </si>
+  <si>
+    <t>Have to improve on all aspects</t>
+  </si>
+  <si>
+    <t>Self learning, hard working, work with less supervision,overall good</t>
+  </si>
+  <si>
+    <t>technically good, never work as a team, problem listening to instructions</t>
+  </si>
+  <si>
+    <t>Over all good.</t>
+  </si>
+  <si>
+    <t>have to work hard</t>
+  </si>
+  <si>
+    <t>slow learner,have to improve listening ability</t>
+  </si>
+  <si>
+    <t>have to improve communication,never spoke a word</t>
+  </si>
+  <si>
+    <t>Fast learner,have to increase focus</t>
+  </si>
+  <si>
+    <t>have to increase focus</t>
+  </si>
+  <si>
+    <t>Fast learner overall good</t>
+  </si>
+  <si>
+    <t>Sound technical knowledge, handson must be improved.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,10 +218,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -245,7 +285,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -280,7 +320,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -457,30 +497,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B3:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="93" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,14 +537,8 @@
       <c r="G3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:14">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -516,13 +548,20 @@
       <c r="D4" s="2">
         <v>4</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E4" s="2">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2">
+        <v>7</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -532,13 +571,17 @@
       <c r="D5" s="2">
         <v>2</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E5" s="2">
+        <v>7</v>
+      </c>
+      <c r="F5" s="2">
+        <v>6</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -548,15 +591,17 @@
       <c r="D6" s="2">
         <v>1</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E6" s="2">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2">
+        <v>7</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -566,13 +611,17 @@
       <c r="D7" s="2">
         <v>2</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E7" s="2">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2">
+        <v>4</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14">
       <c r="B8" s="2">
         <v>5</v>
       </c>
@@ -582,19 +631,17 @@
       <c r="D8" s="2">
         <v>1</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2">
+        <v>7</v>
+      </c>
       <c r="F8" s="2">
         <v>7</v>
       </c>
-      <c r="G8" s="2">
-        <v>7</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G8" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
       <c r="B9" s="2">
         <v>6</v>
       </c>
@@ -604,13 +651,17 @@
       <c r="D9" s="2">
         <v>4</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E9" s="2">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2">
+        <v>8</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
       <c r="B10" s="2">
         <v>7</v>
       </c>
@@ -620,13 +671,17 @@
       <c r="D10" s="2">
         <v>3</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E10" s="2">
+        <v>6</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14">
       <c r="B11" s="2">
         <v>8</v>
       </c>
@@ -636,13 +691,17 @@
       <c r="D11" s="2">
         <v>3</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E11" s="2">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14">
       <c r="B12" s="2">
         <v>9</v>
       </c>
@@ -652,13 +711,17 @@
       <c r="D12" s="2">
         <v>3</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E12" s="2">
+        <v>5</v>
+      </c>
+      <c r="F12" s="2">
+        <v>3</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14">
       <c r="B13" s="2">
         <v>10</v>
       </c>
@@ -668,13 +731,17 @@
       <c r="D13" s="2">
         <v>3</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E13" s="2">
+        <v>7</v>
+      </c>
+      <c r="F13" s="2">
+        <v>7</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14">
       <c r="B14" s="2">
         <v>11</v>
       </c>
@@ -684,13 +751,17 @@
       <c r="D14" s="2">
         <v>6</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E14" s="2">
+        <v>7</v>
+      </c>
+      <c r="F14" s="2">
+        <v>8</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14">
       <c r="B15" s="2">
         <v>12</v>
       </c>
@@ -698,13 +769,17 @@
         <v>12</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E15" s="2">
+        <v>4</v>
+      </c>
+      <c r="F15" s="2">
+        <v>3</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14">
       <c r="B16" s="2">
         <v>13</v>
       </c>
@@ -712,17 +787,17 @@
         <v>13</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2">
+        <v>7</v>
+      </c>
       <c r="F16" s="2">
         <v>7</v>
       </c>
-      <c r="G16" s="2">
-        <v>7</v>
-      </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G16" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
       <c r="B17" s="2">
         <v>14</v>
       </c>
@@ -730,17 +805,17 @@
         <v>14</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2">
+        <v>7</v>
+      </c>
       <c r="F17" s="2">
         <v>7</v>
       </c>
-      <c r="G17" s="2">
-        <v>7</v>
-      </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G17" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
       <c r="B18" s="2">
         <v>15</v>
       </c>
@@ -750,11 +825,11 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G18" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
       <c r="B19" s="2">
         <v>16</v>
       </c>
@@ -764,13 +839,17 @@
       <c r="D19" s="2">
         <v>2</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E19" s="2">
+        <v>6</v>
+      </c>
+      <c r="F19" s="2">
+        <v>5</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
       <c r="B20" s="2">
         <v>17</v>
       </c>
@@ -780,13 +859,17 @@
       <c r="D20" s="2">
         <v>2</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E20" s="2">
+        <v>5</v>
+      </c>
+      <c r="F20" s="2">
+        <v>6</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
       <c r="B21" s="2">
         <v>18</v>
       </c>
@@ -796,13 +879,17 @@
       <c r="D21" s="2">
         <v>2</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E21" s="2">
+        <v>6</v>
+      </c>
+      <c r="F21" s="2">
+        <v>6</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
       <c r="B22" s="2">
         <v>19</v>
       </c>
@@ -812,13 +899,17 @@
       <c r="D22" s="2">
         <v>1</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E22" s="2">
+        <v>5</v>
+      </c>
+      <c r="F22" s="2">
+        <v>4</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
       <c r="B23" s="2">
         <v>20</v>
       </c>
@@ -828,13 +919,17 @@
       <c r="D23" s="2">
         <v>2</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E23" s="2">
+        <v>5</v>
+      </c>
+      <c r="F23" s="2">
+        <v>5</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
       <c r="B24" s="2">
         <v>21</v>
       </c>
@@ -844,17 +939,17 @@
       <c r="D24" s="2">
         <v>1</v>
       </c>
-      <c r="E24" s="2"/>
+      <c r="E24" s="2">
+        <v>7</v>
+      </c>
       <c r="F24" s="2">
         <v>7</v>
       </c>
-      <c r="G24" s="2">
-        <v>7</v>
-      </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G24" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
       <c r="B25" s="2">
         <v>22</v>
       </c>
@@ -864,13 +959,17 @@
       <c r="D25" s="2">
         <v>1</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E25" s="2">
+        <v>6</v>
+      </c>
+      <c r="F25" s="2">
+        <v>7</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
       <c r="B26" s="2">
         <v>23</v>
       </c>
@@ -880,11 +979,15 @@
       <c r="D26" s="2">
         <v>1</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+      <c r="E26" s="2">
+        <v>7</v>
+      </c>
+      <c r="F26" s="2">
+        <v>5</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
